--- a/第三反復/計画/反復計画書_LV50.xlsx
+++ b/第三反復/計画/反復計画書_LV50.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAF4CF-3551-48EF-8C23-7702CECEA4CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B0AE0E-70D5-4920-A7C0-827FA400DFC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/6/12(午後)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2020/6/15(午前)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -493,6 +489,10 @@
     <rPh sb="2" eb="3">
       <t>アイダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5日間</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1640,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1655,7 +1655,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1670,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1749,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -1762,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="15"/>
     </row>
@@ -1794,15 +1794,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1986,6 +1977,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
@@ -1996,14 +1996,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F85FAFE-29F9-480B-BBF7-B82BA9A78B36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2019,4 +2011,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>